--- a/data/financial_statements/sofp/STE.xlsx
+++ b/data/financial_statements/sofp/STE.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>258000000</v>
+        <v>258259000</v>
       </c>
       <c r="C2">
-        <v>316000000</v>
+        <v>316327000</v>
       </c>
       <c r="D2">
-        <v>348000000</v>
+        <v>348320000</v>
       </c>
       <c r="E2">
-        <v>359000000</v>
+        <v>359089000</v>
       </c>
       <c r="F2">
-        <v>383000000</v>
+        <v>383494000</v>
       </c>
       <c r="G2">
         <v>534774000</v>
@@ -730,23 +841,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>780000000</v>
+        <v>780113000</v>
       </c>
       <c r="C3">
-        <v>764000000</v>
+        <v>763788000</v>
       </c>
       <c r="D3">
-        <v>799000000</v>
+        <v>799041000</v>
       </c>
       <c r="E3">
-        <v>752000000</v>
+        <v>752132000</v>
       </c>
       <c r="F3">
-        <v>762000000</v>
+        <v>762003000</v>
       </c>
       <c r="G3">
         <v>743420000</v>
@@ -852,23 +963,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>645000000</v>
+        <v>644936000</v>
       </c>
       <c r="C4">
-        <v>620000000</v>
+        <v>620404000</v>
       </c>
       <c r="D4">
-        <v>575000000</v>
+        <v>574999000</v>
       </c>
       <c r="E4">
-        <v>595000000</v>
+        <v>594599000</v>
       </c>
       <c r="F4">
-        <v>565000000</v>
+        <v>564532000</v>
       </c>
       <c r="G4">
         <v>593067000</v>
@@ -974,8 +1085,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>205000000</v>
@@ -1015,23 +1126,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>1888000000</v>
+        <v>1888299000</v>
       </c>
       <c r="C6">
-        <v>1848000000</v>
+        <v>1847947000</v>
       </c>
       <c r="D6">
-        <v>1879000000</v>
+        <v>1878997000</v>
       </c>
       <c r="E6">
-        <v>1927000000</v>
+        <v>1927094000</v>
       </c>
       <c r="F6">
-        <v>1905000000</v>
+        <v>1904627000</v>
       </c>
       <c r="G6">
         <v>2007860000</v>
@@ -1137,23 +1248,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1746000000</v>
+        <v>1572398000</v>
       </c>
       <c r="C7">
-        <v>1756000000</v>
+        <v>1573337000</v>
       </c>
       <c r="D7">
-        <v>1741000000</v>
+        <v>1552576000</v>
       </c>
       <c r="E7">
-        <v>1716000000</v>
+        <v>1521587000</v>
       </c>
       <c r="F7">
-        <v>1711000000</v>
+        <v>1511255000</v>
       </c>
       <c r="G7">
         <v>1499448000</v>
@@ -1259,23 +1370,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>6783000000</v>
+        <v>6782632000</v>
       </c>
       <c r="C8">
-        <v>7514000000</v>
+        <v>7514208000</v>
       </c>
       <c r="D8">
-        <v>7733000000</v>
+        <v>7732880000</v>
       </c>
       <c r="E8">
-        <v>7991000000</v>
+        <v>7991364000</v>
       </c>
       <c r="F8">
-        <v>8087000000</v>
+        <v>8087114000</v>
       </c>
       <c r="G8">
         <v>8334913000</v>
@@ -1381,23 +1492,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>72000000</v>
+        <v>72234000</v>
       </c>
       <c r="C9">
-        <v>70000000</v>
+        <v>70157000</v>
       </c>
       <c r="D9">
-        <v>63000000</v>
+        <v>70661000</v>
       </c>
       <c r="E9">
-        <v>56000000</v>
+        <v>55895000</v>
       </c>
       <c r="F9">
-        <v>50000000</v>
+        <v>50120000</v>
       </c>
       <c r="G9">
         <v>51445000</v>
@@ -1503,8 +1614,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>8601337000</v>
@@ -1625,23 +1736,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>10490000000</v>
+        <v>10489640000</v>
       </c>
       <c r="C11">
-        <v>11188000000</v>
+        <v>11188010000</v>
       </c>
       <c r="D11">
-        <v>11424000000</v>
+        <v>11423590000</v>
       </c>
       <c r="E11">
-        <v>11690000000</v>
+        <v>11689970000</v>
       </c>
       <c r="F11">
-        <v>11752000000</v>
+        <v>11752450000</v>
       </c>
       <c r="G11">
         <v>12101010000</v>
@@ -1747,23 +1858,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>233000000</v>
+        <v>233308000</v>
       </c>
       <c r="C12">
-        <v>229000000</v>
+        <v>228987000</v>
       </c>
       <c r="D12">
-        <v>226000000</v>
+        <v>225737000</v>
       </c>
       <c r="E12">
-        <v>207000000</v>
+        <v>207152000</v>
       </c>
       <c r="F12">
-        <v>219000000</v>
+        <v>219255000</v>
       </c>
       <c r="G12">
         <v>232186000</v>
@@ -1869,8 +1980,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>454539000</v>
@@ -1991,23 +2102,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>185000000</v>
+        <v>151000000</v>
       </c>
       <c r="C14">
-        <v>187000000</v>
+        <v>151000000</v>
       </c>
       <c r="D14">
-        <v>179000000</v>
+        <v>142875000</v>
       </c>
       <c r="E14">
-        <v>164000000</v>
+        <v>127875000</v>
       </c>
       <c r="F14">
-        <v>59000000</v>
+        <v>21875000</v>
       </c>
       <c r="G14">
         <v>373353000</v>
@@ -2038,16 +2149,16 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>438000000</v>
@@ -2087,23 +2198,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>873000000</v>
+        <v>872815000</v>
       </c>
       <c r="C17">
-        <v>908000000</v>
+        <v>908323000</v>
       </c>
       <c r="D17">
-        <v>922000000</v>
+        <v>922222000</v>
       </c>
       <c r="E17">
-        <v>904000000</v>
+        <v>904307000</v>
       </c>
       <c r="F17">
-        <v>786000000</v>
+        <v>785701000</v>
       </c>
       <c r="G17">
         <v>1145025000</v>
@@ -2209,23 +2320,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>3017000000</v>
+        <v>2873936000</v>
       </c>
       <c r="C18">
-        <v>2997000000</v>
+        <v>2846446000</v>
       </c>
       <c r="D18">
-        <v>3101000000</v>
+        <v>2945481000</v>
       </c>
       <c r="E18">
-        <v>3335000000</v>
+        <v>3175316000</v>
       </c>
       <c r="F18">
-        <v>3585000000</v>
+        <v>3421506000</v>
       </c>
       <c r="G18">
         <v>3256714000</v>
@@ -2331,23 +2442,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>710000000</v>
+        <v>710087000</v>
       </c>
       <c r="C19">
-        <v>791000000</v>
+        <v>790819000</v>
       </c>
       <c r="D19">
-        <v>784000000</v>
+        <v>780619000</v>
       </c>
       <c r="E19">
-        <v>752000000</v>
+        <v>752459000</v>
       </c>
       <c r="F19">
-        <v>753000000</v>
+        <v>752881000</v>
       </c>
       <c r="G19">
         <v>856899000</v>
@@ -2453,23 +2564,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>76000000</v>
+        <v>75900000</v>
       </c>
       <c r="C20">
-        <v>73000000</v>
+        <v>73075000</v>
       </c>
       <c r="D20">
-        <v>73000000</v>
+        <v>75579000</v>
       </c>
       <c r="E20">
-        <v>75000000</v>
+        <v>74763000</v>
       </c>
       <c r="F20">
-        <v>83000000</v>
+        <v>83593000</v>
       </c>
       <c r="G20">
         <v>86040000</v>
@@ -2575,8 +2686,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>3803374000</v>
@@ -2697,23 +2808,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>4676000000</v>
+        <v>4676189000</v>
       </c>
       <c r="C22">
-        <v>4769000000</v>
+        <v>4768878000</v>
       </c>
       <c r="D22">
-        <v>4879000000</v>
+        <v>4878957000</v>
       </c>
       <c r="E22">
-        <v>5066000000</v>
+        <v>5066297000</v>
       </c>
       <c r="F22">
-        <v>5208000000</v>
+        <v>5207517000</v>
       </c>
       <c r="G22">
         <v>5515992000</v>
@@ -2819,8 +2930,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="N23">
         <v>1472725000</v>
@@ -2869,23 +2980,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>4705000000</v>
+        <v>4705118000</v>
       </c>
       <c r="C24">
-        <v>4739000000</v>
+        <v>4738746000</v>
       </c>
       <c r="D24">
-        <v>4743000000</v>
+        <v>4742920000</v>
       </c>
       <c r="E24">
-        <v>4758000000</v>
+        <v>4758199000</v>
       </c>
       <c r="F24">
-        <v>4748000000</v>
+        <v>4748181000</v>
       </c>
       <c r="G24">
         <v>4736838000</v>
@@ -2991,23 +3102,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>1695000000</v>
+        <v>1695087000</v>
       </c>
       <c r="C25">
-        <v>2057000000</v>
+        <v>2057175000</v>
       </c>
       <c r="D25">
-        <v>1999000000</v>
+        <v>1999244000</v>
       </c>
       <c r="E25">
-        <v>1990000000</v>
+        <v>1989870000</v>
       </c>
       <c r="F25">
-        <v>1893000000</v>
+        <v>1893196000</v>
       </c>
       <c r="G25">
         <v>1874559000</v>
@@ -3110,8 +3221,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="AD26">
         <v>319802000</v>
@@ -3148,23 +3259,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>5802000000</v>
+        <v>5813447000</v>
       </c>
       <c r="C27">
-        <v>6408000000</v>
+        <v>6419128000</v>
       </c>
       <c r="D27">
-        <v>6532000000</v>
+        <v>6544637000</v>
       </c>
       <c r="E27">
-        <v>6611000000</v>
+        <v>6623669000</v>
       </c>
       <c r="F27">
-        <v>6536000000</v>
+        <v>6544931000</v>
       </c>
       <c r="G27">
         <v>6585015000</v>
@@ -3270,23 +3381,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>5802000000</v>
+        <v>5813447000</v>
       </c>
       <c r="C28">
-        <v>6408000000</v>
+        <v>6419128000</v>
       </c>
       <c r="D28">
-        <v>6532000000</v>
+        <v>6544637000</v>
       </c>
       <c r="E28">
-        <v>6611000000</v>
+        <v>6623669000</v>
       </c>
       <c r="F28">
-        <v>6536000000</v>
+        <v>6544931000</v>
       </c>
       <c r="G28">
         <v>6585015000</v>
@@ -3392,8 +3503,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>10489640000</v>
@@ -3514,8 +3625,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>99868000</v>
@@ -3636,8 +3747,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="Q31">
         <v>100000</v>
@@ -3677,8 +3788,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>-969185100</v>
@@ -3799,23 +3910,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>2944000000</v>
+        <v>2766677000</v>
       </c>
       <c r="C33">
-        <v>2868000000</v>
+        <v>2681119000</v>
       </c>
       <c r="D33">
-        <v>2932000000</v>
+        <v>2740036000</v>
       </c>
       <c r="E33">
-        <v>3140000000</v>
+        <v>2944102000</v>
       </c>
       <c r="F33">
-        <v>3261000000</v>
+        <v>3059887000</v>
       </c>
       <c r="G33">
         <v>3095293000</v>
@@ -3921,23 +4032,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>3202000000</v>
+        <v>3024936000</v>
       </c>
       <c r="C34">
-        <v>3184000000</v>
+        <v>2997446000</v>
       </c>
       <c r="D34">
-        <v>3280000000</v>
+        <v>3088356000</v>
       </c>
       <c r="E34">
-        <v>3499000000</v>
+        <v>3303191000</v>
       </c>
       <c r="F34">
-        <v>3644000000</v>
+        <v>3443381000</v>
       </c>
       <c r="G34">
         <v>3630067000</v>
